--- a/Configurations/CM_1.1.0_10032019.xlsx
+++ b/Configurations/CM_1.1.0_10032019.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Yu\Documents\SMU\IS214\transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Yu\Documents\SMU\IS214\esm214\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1662F434-1CF6-4B06-8885-601326292F5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D06B32-1C32-41C6-B1B1-4CC9B5DB5E18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2BB56906-853E-4336-8E30-9BAFB26AF772}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCP 1.0.5" sheetId="1" r:id="rId1"/>
+    <sheet name="SCP 1.1.0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -709,7 +709,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>

--- a/Configurations/CM_1.1.0_10032019.xlsx
+++ b/Configurations/CM_1.1.0_10032019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Yu\Documents\SMU\IS214\esm214\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D06B32-1C32-41C6-B1B1-4CC9B5DB5E18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5AC5D-D3F8-4565-ABC7-B7E79E2AB6D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2BB56906-853E-4336-8E30-9BAFB26AF772}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
-    <t>Date Deployed: 18/2/2019</t>
-  </si>
-  <si>
     <t>Deployment Environment</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>8000-8999</t>
+  </si>
+  <si>
+    <t>Date Deployed: 10/3/2019</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -721,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -735,10 +735,10 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -747,15 +747,15 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -771,137 +771,137 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>
       <c r="B26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10"/>
       <c r="B31" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="12">
         <v>8000</v>
@@ -922,33 +922,33 @@
     <row r="37" spans="1:2">
       <c r="A37" s="18"/>
       <c r="B37" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="10"/>
       <c r="B40" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="10"/>
       <c r="B41" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="11"/>
       <c r="B42" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
